--- a/Statystyki_2018/Template/oktk.xlsx
+++ b/Statystyki_2018/Template/oktk.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz3" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz3" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
   <si>
     <t xml:space="preserve">Lp.</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t xml:space="preserve">Liczba wyznaczonych spraw</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liczba przesłuchanych osób</t>
   </si>
   <si>
     <t xml:space="preserve">Wpływ</t>
@@ -103,20 +106,24 @@
       <charset val="238"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="8"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="238"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -244,61 +251,69 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -373,125 +388,236 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A2:T3"/>
+  <dimension ref="A2:U3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
+      <selection pane="topLeft" activeCell="H2" activeCellId="0" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="36.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="0" width="14.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="6.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="36.99"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="21" min="21" style="1" width="14.87"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="28.35" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6" t="s">
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6" t="s">
+      <c r="I2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="7" t="s">
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="9" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8" t="s">
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="8" t="s">
+      <c r="E3" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="G3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="N3" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="11" t="s">
         <v>13</v>
       </c>
       <c r="R3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="13"/>
+      <c r="T3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="U3" s="15"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:M2"/>
-    <mergeCell ref="N2:S2"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="O2:T2"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
